--- a/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>FKST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,60 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42308</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42216</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,8 +746,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -757,8 +763,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -772,8 +778,11 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,8 +795,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -801,8 +810,11 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,8 +965,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -955,22 +981,25 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,22 +1013,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1040,8 +1073,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1054,23 +1090,26 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1080,26 +1119,29 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1113,22 +1155,25 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,8 +1233,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1200,22 +1251,25 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1229,22 +1283,25 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1388,8 +1457,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1403,22 +1475,25 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,8 +1521,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1461,56 +1539,62 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42308</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42216</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,8 +1620,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1549,8 +1635,8 @@
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1558,14 +1644,17 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,8 +1682,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1622,8 +1714,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1636,23 +1731,26 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1668,11 +1766,11 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1680,8 +1778,11 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1694,23 +1795,26 @@
       <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1752,8 +1859,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1761,14 +1868,17 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1868,23 +1987,26 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,8 +2034,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1930,19 +2055,22 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,8 +2096,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1981,8 +2111,8 @@
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>200</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -1990,14 +2120,17 @@
       <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2011,22 +2144,25 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2054,8 +2190,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2069,22 +2208,25 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2254,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2286,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,8 +2382,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2243,22 +2400,25 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,8 +2556,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2401,22 +2574,25 @@
         <v>-3400</v>
       </c>
       <c r="G72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,8 +2684,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2517,22 +2702,25 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,42 +2748,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42308</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42216</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2609,22 +2803,25 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,8 +2848,8 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -2665,8 +2863,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,8 +3023,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2825,22 +3041,25 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,16 +3165,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -2962,14 +3191,17 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3112,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3121,13 +3366,16 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,8 +3403,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3182,6 +3433,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>FKST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,68 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42308</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42216</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,8 +757,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,11 +780,11 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -781,8 +795,14 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,11 +818,11 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -813,8 +833,14 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +853,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +887,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +925,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +963,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +1001,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,8 +1018,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -984,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -998,8 +1052,14 @@
       <c r="L17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1016,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
@@ -1030,8 +1090,14 @@
       <c r="L18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1110,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1076,8 +1144,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1093,14 +1167,14 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
@@ -1108,8 +1182,14 @@
       <c r="L21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,26 +1202,32 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1158,22 +1244,28 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1296,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1334,14 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1254,22 +1358,28 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,22 +1396,28 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1448,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1486,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1524,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1562,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1460,8 +1600,14 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1478,22 +1624,28 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1676,14 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1542,59 +1700,71 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42308</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42216</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1777,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,8 +1793,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1638,23 +1812,29 @@
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,8 +1865,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,8 +1903,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1734,23 +1926,29 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1769,20 +1967,26 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1798,23 +2002,29 @@
       <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,8 +2055,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1862,23 +2078,29 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2131,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2169,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2207,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1990,23 +2230,29 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,8 +2283,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2058,19 +2310,25 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2341,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,16 +2357,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
@@ -2114,23 +2376,29 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2147,22 +2415,28 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2193,8 +2467,14 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2211,22 +2491,28 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,8 +2543,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,8 +2581,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2619,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2657,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,8 +2695,14 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2403,22 +2719,28 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2753,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2787,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2825,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2863,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,8 +2901,14 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2577,22 +2925,28 @@
         <v>-3400</v>
       </c>
       <c r="H72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2977,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3015,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,8 +3053,14 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2705,22 +3077,28 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,45 +3129,57 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42308</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42216</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2806,22 +3196,28 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3230,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2851,11 +3249,11 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -2866,8 +3264,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3302,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3340,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3378,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3416,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,8 +3454,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3044,22 +3478,28 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3512,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3546,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3584,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3622,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3179,29 +3639,35 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3680,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3714,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3752,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3790,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,8 +3828,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3360,22 +3852,28 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,8 +3904,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3436,6 +3940,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FKST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>FKST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42582</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42400</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42308</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42216</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,8 +767,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,8 +793,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -801,8 +808,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -839,8 +849,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,8 +1046,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1044,22 +1071,25 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1082,22 +1112,25 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,8 +1184,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1173,28 +1210,31 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1208,26 +1248,29 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1250,22 +1293,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,8 +1389,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1364,22 +1416,25 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1402,22 +1457,25 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1606,8 +1676,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1630,22 +1703,25 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,8 +1758,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1706,65 +1785,71 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42582</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42400</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42308</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42216</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,28 +1881,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1827,14 +1914,17 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,8 +1961,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1909,75 +2002,81 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -1985,46 +2084,52 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>100</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,28 +2166,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2093,14 +2201,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2236,23 +2356,26 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,8 +2412,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2316,19 +2442,22 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>100</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,8 +2489,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2370,8 +2501,8 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -2382,8 +2513,8 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>200</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2391,14 +2522,17 @@
       <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>200</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2421,22 +2555,25 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2473,8 +2610,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2497,22 +2637,25 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,8 +2856,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2725,22 +2883,25 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,8 +3078,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2931,22 +3105,25 @@
         <v>-3400</v>
       </c>
       <c r="J72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,8 +3242,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3083,22 +3269,25 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,51 +3324,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42582</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42400</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42308</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42216</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42035</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3202,22 +3397,25 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3255,8 +3454,8 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,8 +3674,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3484,22 +3701,25 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,8 +3855,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3654,20 +3884,23 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,8 +4077,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3858,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -3867,13 +4113,16 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,8 +4159,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3946,6 +4198,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>
